--- a/trend_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
+++ b/trend_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0181792765863954</v>
+        <v>0.981820723413605</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.695035410994807</v>
+        <v>0.304964589005193</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.613131270075419</v>
+        <v>0.386868729924581</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.51484579537147</v>
+        <v>0.48515420462853</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>3.32203502652019e-05</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.775193798449612</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.617</v>
+        <v>1.4</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0045867753850006</v>
+        <v>0.145450744948963</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0485130401720565</v>
+        <v>0.0626474396461157</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0543643284333053</v>
+        <v>0.244607682877069</v>
       </c>
       <c r="N30" t="n">
-        <v>0.743399576175143</v>
+        <v>10.3893389249259</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0633802816901408</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.570422535211268</v>
+      </c>
+      <c r="I31" t="n">
         <v>5</v>
       </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.231216363225238</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>118.1</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.26905903790087</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-7.17697212217791</v>
+        <v>-0.055056428124672</v>
       </c>
       <c r="M31" t="n">
-        <v>2.97910903846479</v>
+        <v>0.0578661351557759</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.61478326663918</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3254,11 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,14 +3268,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3275,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.231216363225238</v>
+        <v>0.001088822463103</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.840490797546012</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.84</v>
+        <v>11.06</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.408393518932551</v>
+        <v>-0.039932645142397</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.59803904407165</v>
+        <v>-0.0707067958897854</v>
       </c>
       <c r="M32" t="n">
-        <v>0.463817560119895</v>
+        <v>-0.0189881054241993</v>
       </c>
       <c r="N32" t="n">
-        <v>-5.97066548147004</v>
+        <v>-0.361054657707026</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3345,11 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.237137175383665</v>
+        <v>0.429902261458039</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.289156626506024</v>
       </c>
       <c r="H33" t="n">
+        <v>0.07228915662650599</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.6185</v>
+        <v>0.006</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0064346314325452</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0157442985888089</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0074164827669417</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.0403607813331</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,7 +3436,11 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,14 +3450,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3449,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.053702318165127</v>
+        <v>4.16730152389866e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.436363636363636</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>125.5</v>
+        <v>25</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.6935857805255</v>
+        <v>1.66173794358508</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.50700677115156</v>
+        <v>0.996579332759006</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.138492166304393</v>
+        <v>2.48865490383941</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.34947074145458</v>
+        <v>6.64695177434031</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>0.9637598232147609</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.923566878980892</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.127388535031847</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>6.65</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.037584564860427</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.166819280508869</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.181935971503174</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.565181426472587</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3569,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3598,7 +3618,1253 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.364028485933856</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.579617834394904</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.06369426751592359</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0022867114668078</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.127388535031847</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.579617834394904</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0011632165605095</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0004301460727335</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0019889346554638</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.98260656540911</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9548467819594491</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.640243902439024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.685</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0142212908686645</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0300602852171795</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.18505258124482</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.154700035658375</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0240963855421687</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.487951807228916</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0004990777939982</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0002508092854935</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0013601347375988</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.06186764680488</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.680569136632823</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0060240963855421</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.355421686746988</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0019669693088551</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0006120992172599</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.947370042843335</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.036144578313253</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.289156626506024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0001999178981937</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0004405299459075</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.7384165060327</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.944194115850854</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.91566265060241</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0368641053986221</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.09578930306108591</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0001165936098114</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.72665599056778</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0045867753850006</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0485130401720565</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0543643284333053</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.743399576175143</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-4.26905903790087</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-7.17697212217791</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.97910903846479</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-3.61478326663918</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.408393518932551</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-1.59803904407165</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.463817560119895</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-5.97066548147004</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0064346314325452</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0157442985888089</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0074164827669417</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.0403607813331</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.6935857805255</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-3.50700677115156</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.138492166304393</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.34947074145458</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.037584564860427</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.166819280508869</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.181935971503174</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.565181426472587</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Pohangina at Piripiri</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.050259086603732</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1.26955161626694</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.34829854027547</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.176556882881693</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.00359811562604</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1850793</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5562311</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Middle Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_10b</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
+++ b/trend_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.46039441805033</v>
+        <v>0.937084760508557</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="H2" t="n">
-        <v>0.914285714285714</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0310586734693877</v>
+        <v>-0.398970230068525</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.590728598636136</v>
+        <v>-0.931187084728792</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6734397892735799</v>
+        <v>0.0121530447799599</v>
       </c>
       <c r="N2" t="n">
-        <v>0.862740929705214</v>
+        <v>-16.6237595861885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.923843176852123</v>
+        <v>0.053512934735076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H3" t="n">
-        <v>0.836734693877551</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="K3" t="n">
-        <v>0.183405035476014</v>
+        <v>-0.161225922953451</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0179483494182091</v>
+        <v>-0.54466530480785</v>
       </c>
       <c r="M3" t="n">
-        <v>0.514507959725223</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>10.1891686375563</v>
+        <v>-9.62542823602692</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.981820723413605</v>
+        <v>0.557532021062113</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.949152542372881</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0802747252747253</v>
+        <v>0.0116587195699038</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0187023791990951</v>
+        <v>-0.0399753213801359</v>
       </c>
       <c r="M4" t="n">
-        <v>0.18980345518014</v>
+        <v>0.082111835931316</v>
       </c>
       <c r="N4" t="n">
-        <v>0.729107404856724</v>
+        <v>0.107951107128738</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.510644612719256</v>
+        <v>0.0073276501506488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11864406779661</v>
+        <v>0.203389830508475</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.006</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0006243589743589</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.001071055030206</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>10.4059829059829</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.690872170979921</v>
+        <v>0.231280745288959</v>
       </c>
       <c r="G6" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.542372881355932</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.03837953091684</v>
+        <v>1.65646258503401</v>
       </c>
       <c r="L6" t="n">
-        <v>-6.73271889400922</v>
+        <v>-2.18331358329762</v>
       </c>
       <c r="M6" t="n">
-        <v>3.06910003301361</v>
+        <v>5.25719851325383</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.46126510305615</v>
+        <v>6.62585034013606</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,13 +1029,13 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0545454545454545</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.86995037775309</v>
+        <v>0.995131759740876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.610169491525424</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="H8" t="n">
         <v>0.0847457627118644</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.442467978937887</v>
+        <v>0.155529018313119</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.779661016949153</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0008268845749682</v>
+        <v>0.001337912087912</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0047687652461543</v>
+        <v>-0.0031327762415749</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0030103021978022</v>
+        <v>0.0049454678620014</v>
       </c>
       <c r="N9" t="n">
-        <v>1.72267619785042</v>
+        <v>3.04070929070929</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.304964589005193</v>
+        <v>0.29359222420274</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.88135593220339</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0141023166023163</v>
+        <v>-0.011858766233766</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0738144146374862</v>
+        <v>-0.0524917537896633</v>
       </c>
       <c r="M10" t="n">
-        <v>0.050935426728925</v>
+        <v>0.0300474379506673</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.183146968861251</v>
+        <v>-0.153810197584513</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1376,13 +1376,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.58659609782936</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0.053</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0004953661844484</v>
+        <v>0.0027331632653061</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0052788113197779</v>
+        <v>-0.0022989969964953</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0028208896714197</v>
+        <v>0.0067537401002584</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.934653178204648</v>
+        <v>5.15691182133231</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1463,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.968960410444803</v>
+        <v>0.641243534409456</v>
       </c>
       <c r="G12" t="n">
-        <v>0.338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.406779661016949</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0.11</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.283579192546584</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.86352040816327</v>
+        <v>-0.0066048824593128</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0038650793650793</v>
       </c>
       <c r="N12" t="n">
-        <v>-14.1789596273292</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.867768445953369</v>
+        <v>0.0265757229878309</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.338983050847458</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.12</v>
+        <v>0.011</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0042372389791183</v>
+        <v>0.0014361074705111</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0122474479408395</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0030693277310924</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.53103248259861</v>
+        <v>13.0555224591922</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.866030577193363</v>
+        <v>0.133120597723763</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H14" t="n">
-        <v>0.525423728813559</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.011</v>
+        <v>2.02</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0008794141252006</v>
+        <v>0.23549620733249</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0028286405525539</v>
+        <v>-0.115258220035438</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003086809304187</v>
+        <v>0.8913809917422429</v>
       </c>
       <c r="N14" t="n">
-        <v>-7.99467386546038</v>
+        <v>11.6582280857669</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.993032844405479</v>
+        <v>0.679173618359902</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="H15" t="n">
-        <v>0.966101694915254</v>
+        <v>0.807228915662651</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.577126623376623</v>
+        <v>-0.0501717032967031</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.84977751433439</v>
+        <v>-0.23686062905668</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.134158274292525</v>
+        <v>0.061107682294639</v>
       </c>
       <c r="N15" t="n">
-        <v>-29.5962370962371</v>
+        <v>-2.44740016081479</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.250350126092089</v>
+        <v>0.001020260931206</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H16" t="n">
-        <v>0.827586206896552</v>
+        <v>0.712765957446808</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0501594511927784</v>
+        <v>-0.171077283372365</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.09187523856315689</v>
+        <v>-0.354307659509744</v>
       </c>
       <c r="M16" t="n">
-        <v>0.215572648890577</v>
+        <v>-0.0571508312318974</v>
       </c>
       <c r="N16" t="n">
-        <v>2.04732453848075</v>
+        <v>-7.95708294755188</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.009154961657061899</v>
+        <v>0.726118179978115</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0306122448979592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.704081632653061</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.35</v>
+        <v>10.96</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.117365668369189</v>
+        <v>0.010034340659341</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.242085299263168</v>
+        <v>-0.0199328044250107</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0394135444808311</v>
+        <v>0.0324449983411287</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.99428376039104</v>
+        <v>0.0915542030961774</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.439838181984459</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.226890756302521</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.092436974789916</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.386868729924581</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.873949579831933</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>11.03</v>
+        <v>0.006</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0049931647300067</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0351086974620776</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0232039989683387</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0452689458749477</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,43 +2089,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7716483665938491</v>
+        <v>0.354847796295691</v>
       </c>
       <c r="G19" t="n">
-        <v>0.243697478991597</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.415254237288136</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-3.68769269520445e-05</v>
+        <v>-0.998632946001367</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.98775510204082</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,46 +2180,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0581497234315385</v>
+        <v>0.910593263221623</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="H20" t="n">
-        <v>0.423728813559322</v>
+        <v>0.126126126126126</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>25</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>1.00343406593407</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.66215045931031</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.01373626373626</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9623671599327071</v>
+        <v>0.9782819069608</v>
       </c>
       <c r="G21" t="n">
-        <v>0.945454545454545</v>
+        <v>0.53781512605042</v>
       </c>
       <c r="H21" t="n">
-        <v>0.127272727272727</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2362,46 +2362,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.988686695787081</v>
+        <v>9.09544857289331e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>0.470588235294118</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.04</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0026758241758241</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.001603987399113</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0036890023791985</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>6.68956043956044</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2468,31 +2468,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.35848880889239e-06</v>
+        <v>0.234651890788787</v>
       </c>
       <c r="G23" t="n">
-        <v>0.126050420168067</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.65546218487395</v>
+        <v>0.697478991596639</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.039</v>
+        <v>7.71</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0026644376899696</v>
+        <v>-0.0075840946843853</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0016287643244807</v>
+        <v>-0.0238917876747166</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0035484439376543</v>
+        <v>0.0096110230760108</v>
       </c>
       <c r="N23" t="n">
-        <v>6.83189151274258</v>
+        <v>-0.0983669868273068</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2530,7 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,46 +2540,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.48515420462853</v>
+        <v>0.0003882220683115</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H24" t="n">
-        <v>0.677966101694915</v>
+        <v>0.579831932773109</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.685</v>
+        <v>0.05</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0027331632653061</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0184725726579959</v>
+        <v>0.0014137100842422</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0191325864119778</v>
+        <v>0.0041820181578883</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>5.46632653061225</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2617,11 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,14 +2631,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2646,31 +2646,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0001041159845957</v>
+        <v>0.0174476706896963</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0336134453781513</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H25" t="n">
-        <v>0.512605042016807</v>
+        <v>0.302521008403361</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.045</v>
+        <v>0.11</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0025731898238747</v>
+        <v>0.002484693877551</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0014990853575459</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0036774041255264</v>
+        <v>0.0046769556891232</v>
       </c>
       <c r="N25" t="n">
-        <v>5.71819960861057</v>
+        <v>2.25881261595548</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,46 +2722,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>0.102390626001336</v>
       </c>
       <c r="G26" t="n">
-        <v>0.235294117647059</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H26" t="n">
-        <v>0.319327731092437</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0.011</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0002790297937356</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.104308184508488</v>
+        <v>0.0007051158301158</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.53663448850615</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0140678803665838</v>
+        <v>0.282851622045493</v>
       </c>
       <c r="G27" t="n">
         <v>0.008403361344537799</v>
       </c>
       <c r="H27" t="n">
-        <v>0.369747899159664</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.11</v>
+        <v>2.21</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002484693877551</v>
+        <v>0.0301030219780218</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-0.062415560554126</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0049787741988719</v>
+        <v>0.16593231174788</v>
       </c>
       <c r="N27" t="n">
-        <v>2.25881261595548</v>
+        <v>1.3621276913132</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,46 +2904,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.385827204237157</v>
+        <v>0.0011889208510197</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0168067226890756</v>
+        <v>0.0073529411764705</v>
       </c>
       <c r="H28" t="n">
-        <v>0.336134453781513</v>
+        <v>0.75</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01</v>
+        <v>1.225</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.06915774697365849</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0002328330624377</v>
+        <v>0.0252914087490976</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0003998357963875</v>
+        <v>0.151544101170994</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>5.64553036519661</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2995,46 +2995,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.602987221014469</v>
+        <v>0.126872423091032</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0604026845637584</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.557046979865772</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.010131761442441</v>
+        <v>-0.0250139036990734</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0819954996240705</v>
+        <v>-0.0772455020649746</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0549249210919898</v>
+        <v>0.0118246999808858</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.48246483059243</v>
+        <v>-1.25069518495367</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.32203502652019e-05</v>
+        <v>0.000414056266372</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.775193798449612</v>
+        <v>0.822857142857143</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.4</v>
+        <v>11.05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.145450744948963</v>
+        <v>-0.0398499829526083</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0626474396461157</v>
+        <v>-0.0656651038092427</v>
       </c>
       <c r="M30" t="n">
-        <v>0.244607682877069</v>
+        <v>-0.0199504378074168</v>
       </c>
       <c r="N30" t="n">
-        <v>10.3893389249259</v>
+        <v>-0.360633329887858</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3177,43 +3177,43 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.134286572214924</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.275280898876405</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.06741573033707859</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0633802816901408</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.570422535211268</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>0.006</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.055056428124672</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0578661351557759</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3283,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.001088822463103</v>
+        <v>5.71120573474424e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H32" t="n">
-        <v>0.840490797546012</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>11.06</v>
+        <v>25</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.039932645142397</v>
+        <v>1.45192546583851</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0707067958897854</v>
+        <v>0.7972866722101321</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0189881054241993</v>
+        <v>2.07801551828615</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.361054657707026</v>
+        <v>5.80770186335404</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3374,19 +3374,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.429902261458039</v>
+        <v>0.939494305052988</v>
       </c>
       <c r="G33" t="n">
-        <v>0.289156626506024</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07228915662650599</v>
+        <v>0.124260355029586</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.16730152389866e-05</v>
+        <v>0.593989220726885</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0121212121212121</v>
+        <v>0.5976331360946751</v>
       </c>
       <c r="H34" t="n">
-        <v>0.436363636363636</v>
+        <v>0.0591715976331361</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>25</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>1.66173794358508</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.996579332759006</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.48865490383941</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>6.64695177434031</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9637598232147609</v>
+        <v>0.0006758406495124</v>
       </c>
       <c r="G35" t="n">
-        <v>0.923566878980892</v>
+        <v>0.118343195266272</v>
       </c>
       <c r="H35" t="n">
-        <v>0.127388535031847</v>
+        <v>0.556213017751479</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.039</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0012173278787022</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0005759054908769</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0019568617739521</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.12135353513384</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,35 +3643,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.364028485933856</v>
+        <v>0.962246630837737</v>
       </c>
       <c r="G36" t="n">
-        <v>0.579617834394904</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06369426751592359</v>
+        <v>0.613636363636364</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>7.69</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0124369438664837</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0254529616724739</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.161728788900958</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3709,11 +3709,7 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3734,35 +3730,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0022867114668078</v>
+        <v>0.0632549789888691</v>
       </c>
       <c r="G37" t="n">
-        <v>0.127388535031847</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H37" t="n">
-        <v>0.579617834394904</v>
+        <v>0.601123595505618</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.039</v>
+        <v>0.0481</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0011632165605095</v>
+        <v>0.0007376467614812</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0004301460727335</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0019889346554638</v>
+        <v>0.0014080031015965</v>
       </c>
       <c r="N37" t="n">
-        <v>2.98260656540911</v>
+        <v>1.53356915068857</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3802,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,46 +3810,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9548467819594491</v>
+        <v>0.598146672346728</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H38" t="n">
-        <v>0.640243902439024</v>
+        <v>0.337078651685393</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.685</v>
+        <v>0.11</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0142212908686645</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0012866082286965</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0300602852171795</v>
+        <v>0.0007970011597989</v>
       </c>
       <c r="N38" t="n">
-        <v>0.18505258124482</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3887,11 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3912,35 +3912,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.154700035658375</v>
+        <v>0.569580206301573</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0240963855421687</v>
+        <v>0.0337078651685393</v>
       </c>
       <c r="H39" t="n">
-        <v>0.487951807228916</v>
+        <v>0.292134831460674</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.047</v>
+        <v>0.012</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0004990777939982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0002508092854935</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0013601347375988</v>
+        <v>0.0001986541168754</v>
       </c>
       <c r="N39" t="n">
-        <v>1.06186764680488</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4003,35 +4003,35 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.680569136632823</v>
+        <v>0.630721900006846</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0060240963855421</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H40" t="n">
-        <v>0.355421686746988</v>
+        <v>0.921348314606742</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.11</v>
+        <v>2.26</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-0.0069837476099426</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0019669693088551</v>
+        <v>-0.0521133783125761</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0006120992172599</v>
+        <v>0.0440813014385049</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-0.309015380970914</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4083,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.947370042843335</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.036144578313253</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.289156626506024</v>
-      </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0115</v>
+        <v>0.62</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0001999178981937</v>
+        <v>-0.0001313922482573</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0004405299459075</v>
+        <v>-0.0485130401720565</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.0149118303175931</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.7384165060327</v>
+        <v>-0.0211922981060206</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4160,11 +4160,7 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4174,46 +4170,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.944194115850854</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.91566265060241</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.135</v>
+        <v>127</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0368641053986221</v>
+        <v>-4.26905903790087</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.09578930306108591</v>
+        <v>-7.17697212217791</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0001165936098114</v>
+        <v>3.24689160997053</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.72665599056778</v>
+        <v>-3.36146380937077</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4218,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4251,11 +4247,7 @@
           <t>Mana_10b</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4265,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4272,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.59675202974633</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.617</v>
+        <v>7.448</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0045867753850006</v>
+        <v>-0.16091679489256</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0485130401720565</v>
+        <v>-1.59803904407165</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0543643284333053</v>
+        <v>1.01558460557007</v>
       </c>
       <c r="N43" t="n">
-        <v>0.743399576175143</v>
+        <v>-2.16053698835338</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4352,11 +4344,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4367,7 +4359,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.231216363225238</v>
+        <v>0.5</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4379,19 +4371,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.1</v>
+        <v>0.6185</v>
       </c>
       <c r="K44" t="n">
-        <v>-4.26905903790087</v>
+        <v>0.0013008508112386</v>
       </c>
       <c r="L44" t="n">
-        <v>-7.17697212217791</v>
+        <v>-0.009889630628508899</v>
       </c>
       <c r="M44" t="n">
-        <v>2.97910903846479</v>
+        <v>0.009775180918289999</v>
       </c>
       <c r="N44" t="n">
-        <v>-3.61478326663918</v>
+        <v>0.210323494137207</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4400,7 +4392,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4439,11 +4431,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4454,7 +4446,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.231216363225238</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4466,19 +4458,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.84</v>
+        <v>125.5</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.408393518932551</v>
+        <v>-0.904084158415842</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.59803904407165</v>
+        <v>-3.32942216065707</v>
       </c>
       <c r="M45" t="n">
-        <v>0.463817560119895</v>
+        <v>0.72108849507043</v>
       </c>
       <c r="N45" t="n">
-        <v>-5.97066548147004</v>
+        <v>-0.72038578359828</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4526,7 +4518,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4541,7 +4533,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.237137175383665</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4553,19 +4545,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6185</v>
+        <v>6.785</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0064346314325452</v>
+        <v>0.037584564860427</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0157442985888089</v>
+        <v>-0.166819280508869</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0074164827669417</v>
+        <v>0.181935971503174</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.0403607813331</v>
+        <v>0.553936107007031</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4566,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4613,11 +4605,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4628,7 +4620,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.053702318165127</v>
+        <v>0.586667015164922</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4640,19 +4632,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>125.5</v>
+        <v>0.6185</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.6935857805255</v>
+        <v>0.0017914168937329</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.50700677115156</v>
+        <v>-0.0065736672339536</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.138492166304393</v>
+        <v>0.0079387248355271</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.34947074145458</v>
+        <v>0.289638948057069</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4661,7 +4653,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4700,11 +4692,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4715,7 +4707,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5</v>
+        <v>0.117477391851672</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4727,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>6.65</v>
+        <v>127</v>
       </c>
       <c r="K48" t="n">
-        <v>0.037584564860427</v>
+        <v>-0.886474654377881</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.166819280508869</v>
+        <v>-1.78142829092204</v>
       </c>
       <c r="M48" t="n">
-        <v>0.181935971503174</v>
+        <v>0.206120585787143</v>
       </c>
       <c r="N48" t="n">
-        <v>0.565181426472587</v>
+        <v>-0.698011538880221</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4748,7 +4740,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4787,7 +4779,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4802,31 +4794,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.050259086603732</v>
+        <v>0.565323878816037</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>126.5</v>
+        <v>6.785</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.26955161626694</v>
+        <v>0.0105057526366249</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.34829854027547</v>
+        <v>-0.122554292849509</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.176556882881693</v>
+        <v>0.09943728610145471</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.00359811562604</v>
+        <v>0.154837916530949</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4835,7 +4827,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">

--- a/trend_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
+++ b/trend_results/Rivers/PohanginaatPiripiri_841649a7c5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -154,49 +154,43 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -678,31 +672,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.937084760508557</v>
+        <v>0.999116767724045</v>
       </c>
       <c r="G2">
-        <v>0.027027027027027</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="H2">
-        <v>0.918918918918919</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="K2">
-        <v>-0.398970230068525</v>
+        <v>-0.5842544036845509</v>
       </c>
       <c r="L2">
-        <v>-0.931187084728792</v>
+        <v>-1.00784314585017</v>
       </c>
       <c r="M2">
-        <v>0.0121530447799599</v>
+        <v>-0.234218560851948</v>
       </c>
       <c r="N2">
-        <v>-16.6237595861885</v>
+        <v>-50.8047307551783</v>
       </c>
       <c r="O2" t="s">
         <v>45</v>
@@ -717,19 +711,19 @@
         <v>5562311</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
         <v>63</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -749,31 +743,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.053512934735076</v>
+        <v>0.0018981260597079</v>
       </c>
       <c r="G3">
-        <v>0.0217391304347826</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H3">
-        <v>0.760869565217391</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.675</v>
+        <v>0.85</v>
       </c>
       <c r="K3">
-        <v>-0.161225922953451</v>
+        <v>-0.39595685840708</v>
       </c>
       <c r="L3">
-        <v>-0.54466530480785</v>
+        <v>-0.979784727155856</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.110230701802112</v>
       </c>
       <c r="N3">
-        <v>-9.62542823602692</v>
+        <v>-46.5831598125976</v>
       </c>
       <c r="O3" t="s">
         <v>45</v>
@@ -788,19 +782,19 @@
         <v>5562311</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="s">
         <v>64</v>
-      </c>
-      <c r="W3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -820,13 +814,13 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.557532021062113</v>
+        <v>0.041230749793399</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.915254237288136</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -835,16 +829,16 @@
         <v>10.8</v>
       </c>
       <c r="K4">
-        <v>0.0116587195699038</v>
+        <v>-0.0549971346328829</v>
       </c>
       <c r="L4">
-        <v>-0.0399753213801359</v>
+        <v>-0.122990183346872</v>
       </c>
       <c r="M4">
-        <v>0.082111835931316</v>
+        <v>-0.010034340659341</v>
       </c>
       <c r="N4">
-        <v>0.107951107128738</v>
+        <v>-0.509232728082249</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
@@ -859,19 +853,19 @@
         <v>5562311</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -891,7 +885,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0073276501506488</v>
+        <v>0.0001178616713373</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -906,22 +900,22 @@
         <v>0.006</v>
       </c>
       <c r="K5">
-        <v>0.0006243589743589</v>
+        <v>0.0009662698412698</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0005220963880254</v>
       </c>
       <c r="M5">
-        <v>0.001071055030206</v>
+        <v>0.001337912087912</v>
       </c>
       <c r="N5">
-        <v>10.4059829059829</v>
+        <v>16.1044973544974</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1850793</v>
@@ -930,19 +924,19 @@
         <v>5562311</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -962,37 +956,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.231280745288959</v>
+        <v>0.770406739659013</v>
       </c>
       <c r="G6">
-        <v>0.0169491525423729</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H6">
-        <v>0.491525423728814</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="K6">
-        <v>1.65646258503401</v>
+        <v>-1.63058035714286</v>
       </c>
       <c r="L6">
-        <v>-2.18331358329762</v>
+        <v>-7.00018169064106</v>
       </c>
       <c r="M6">
-        <v>5.25719851325383</v>
+        <v>1.70286734228302</v>
       </c>
       <c r="N6">
-        <v>6.62585034013606</v>
+        <v>-6.47055697278912</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1850793</v>
@@ -1001,19 +995,19 @@
         <v>5562311</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1033,19 +1027,19 @@
         <v>41</v>
       </c>
       <c r="G7">
-        <v>0.981818181818182</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="H7">
-        <v>0.0545454545454545</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
         <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>1850793</v>
@@ -1054,19 +1048,19 @@
         <v>5562311</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,10 +1080,10 @@
         <v>42</v>
       </c>
       <c r="F8">
-        <v>0.995131759740876</v>
+        <v>0.993330847889388</v>
       </c>
       <c r="G8">
-        <v>0.644067796610169</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="H8">
         <v>0.0847457627118644</v>
@@ -1116,7 +1110,7 @@
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1850793</v>
@@ -1125,19 +1119,19 @@
         <v>5562311</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,13 +1151,13 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.155529018313119</v>
+        <v>0.0840391595174852</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.76271186440678</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1172,22 +1166,22 @@
         <v>0.044</v>
       </c>
       <c r="K9">
-        <v>0.001337912087912</v>
+        <v>0.0021366382084956</v>
       </c>
       <c r="L9">
-        <v>-0.0031327762415749</v>
+        <v>-0.0004938276166652999</v>
       </c>
       <c r="M9">
-        <v>0.0049454678620014</v>
+        <v>0.0053354095192313</v>
       </c>
       <c r="N9">
-        <v>3.04070929070929</v>
+        <v>4.85599592839919</v>
       </c>
       <c r="O9" t="s">
         <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1850793</v>
@@ -1196,19 +1190,19 @@
         <v>5562311</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,37 +1222,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.29359222420274</v>
+        <v>0.836774345037116</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.847457627118644</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="K10">
-        <v>-0.011858766233766</v>
+        <v>0.0267582417582418</v>
       </c>
       <c r="L10">
-        <v>-0.0524917537896633</v>
+        <v>-0.0133862414548521</v>
       </c>
       <c r="M10">
-        <v>0.0300474379506673</v>
+        <v>0.0686157193643586</v>
       </c>
       <c r="N10">
-        <v>-0.153810197584513</v>
+        <v>0.345713717806741</v>
       </c>
       <c r="O10" t="s">
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1850793</v>
@@ -1267,16 +1261,16 @@
         <v>5562311</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,13 +1290,13 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.174072312476531</v>
+        <v>0.139508156605682</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.6949152542372879</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1311,22 +1305,22 @@
         <v>0.053</v>
       </c>
       <c r="K11">
-        <v>0.0027331632653061</v>
+        <v>0.0047046119838899</v>
       </c>
       <c r="L11">
-        <v>-0.0022989969964953</v>
+        <v>-0.0016483243167636</v>
       </c>
       <c r="M11">
-        <v>0.0067537401002584</v>
+        <v>0.0074626149020249</v>
       </c>
       <c r="N11">
-        <v>5.15691182133231</v>
+        <v>8.87662638469792</v>
       </c>
       <c r="O11" t="s">
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q11">
         <v>1850793</v>
@@ -1335,19 +1329,19 @@
         <v>5562311</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <v>0.641243534409456</v>
+        <v>0.682280178470052</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1385,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0066048824593128</v>
+        <v>-0.0070511583011583</v>
       </c>
       <c r="M12">
-        <v>0.0038650793650793</v>
+        <v>0.0033447802197802</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1397,7 +1391,7 @@
         <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1850793</v>
@@ -1406,19 +1400,19 @@
         <v>5562311</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0265757229878309</v>
+        <v>0.0384496069471867</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1450,25 +1444,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="K13">
-        <v>0.0014361074705111</v>
+        <v>0.0010870535714285</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0030693277310924</v>
+        <v>0.0023087863463969</v>
       </c>
       <c r="N13">
-        <v>13.0555224591922</v>
+        <v>9.058779761904759</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q13">
         <v>1850793</v>
@@ -1477,19 +1471,19 @@
         <v>5562311</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1503,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.133120597723763</v>
+        <v>0.0490103790193269</v>
       </c>
       <c r="G14">
         <v>0.0169491525423729</v>
       </c>
       <c r="H14">
-        <v>0.966101694915254</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="K14">
-        <v>0.23549620733249</v>
+        <v>0.289880952380952</v>
       </c>
       <c r="L14">
-        <v>-0.115258220035438</v>
+        <v>0.0028581981525704</v>
       </c>
       <c r="M14">
-        <v>0.8913809917422429</v>
+        <v>0.775866939031022</v>
       </c>
       <c r="N14">
-        <v>11.6582280857669</v>
+        <v>13.0577005577006</v>
       </c>
       <c r="O14" t="s">
         <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q14">
         <v>1850793</v>
@@ -1548,19 +1542,19 @@
         <v>5562311</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,43 +1568,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.679173618359902</v>
+        <v>0.891622514624028</v>
       </c>
       <c r="G15">
-        <v>0.0120481927710843</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="H15">
-        <v>0.807228915662651</v>
+        <v>0.759036144578313</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="K15">
-        <v>-0.0501717032967031</v>
+        <v>-0.0658215923984273</v>
       </c>
       <c r="L15">
-        <v>-0.23686062905668</v>
+        <v>-0.192308031306227</v>
       </c>
       <c r="M15">
-        <v>0.061107682294639</v>
+        <v>0.0227394455898795</v>
       </c>
       <c r="N15">
-        <v>-2.44740016081479</v>
+        <v>-3.7612338513387</v>
       </c>
       <c r="O15" t="s">
         <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1850793</v>
@@ -1619,19 +1613,19 @@
         <v>5562311</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
         <v>63</v>
-      </c>
-      <c r="V15" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,37 +1645,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.001020260931206</v>
+        <v>0.0001585511197399</v>
       </c>
       <c r="G16">
-        <v>0.0212765957446809</v>
+        <v>0.021978021978022</v>
       </c>
       <c r="H16">
-        <v>0.712765957446808</v>
+        <v>0.703296703296703</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>-0.171077283372365</v>
+        <v>-0.228186172428155</v>
       </c>
       <c r="L16">
-        <v>-0.354307659509744</v>
+        <v>-0.419377557215435</v>
       </c>
       <c r="M16">
-        <v>-0.0571508312318974</v>
+        <v>-0.07886728394849769</v>
       </c>
       <c r="N16">
-        <v>-7.95708294755188</v>
+        <v>-11.4093086214077</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1850793</v>
@@ -1690,19 +1684,19 @@
         <v>5562311</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" t="s">
         <v>64</v>
-      </c>
-      <c r="W16" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,40 +1713,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>0.726118179978115</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.873949579831933</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.96</v>
+        <v>10.98</v>
       </c>
       <c r="K17">
-        <v>0.010034340659341</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0199328044250107</v>
+        <v>-0.0297311354991895</v>
       </c>
       <c r="M17">
-        <v>0.0324449983411287</v>
+        <v>0.0213822514910798</v>
       </c>
       <c r="N17">
-        <v>0.0915542030961774</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>1850793</v>
@@ -1761,19 +1755,19 @@
         <v>5562311</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,13 +1787,13 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>0.439838181984459</v>
+        <v>0.0774323102327437</v>
       </c>
       <c r="G18">
         <v>0.226890756302521</v>
       </c>
       <c r="H18">
-        <v>0.092436974789916</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1814,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0001969002695417</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1823,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>1850793</v>
@@ -1832,19 +1826,19 @@
         <v>5562311</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,16 +1855,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.354847796295691</v>
+        <v>0.889038422992334</v>
       </c>
       <c r="G19">
-        <v>0.008474576271186401</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H19">
-        <v>0.415254237288136</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,22 +1873,22 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.998632946001367</v>
       </c>
       <c r="L19">
-        <v>-0.998632946001367</v>
+        <v>-2.2318427597517</v>
       </c>
       <c r="M19">
-        <v>1.98775510204082</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-3.32877648667122</v>
       </c>
       <c r="O19" t="s">
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1850793</v>
@@ -1903,19 +1897,19 @@
         <v>5562311</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,13 +1929,13 @@
         <v>44</v>
       </c>
       <c r="F20">
-        <v>0.910593263221623</v>
+        <v>0.939770558614316</v>
       </c>
       <c r="G20">
-        <v>0.9459459459459461</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="H20">
-        <v>0.126126126126126</v>
+        <v>0.117117117117117</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -1965,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q20">
         <v>1850793</v>
@@ -1974,19 +1968,19 @@
         <v>5562311</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,13 +2000,13 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>0.9782819069608</v>
+        <v>0.995426194295832</v>
       </c>
       <c r="G21">
-        <v>0.53781512605042</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="H21">
-        <v>0.0756302521008403</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2036,7 +2030,7 @@
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1850793</v>
@@ -2045,19 +2039,19 @@
         <v>5562311</v>
       </c>
       <c r="S21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,16 +2068,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22">
-        <v>9.09544857289331E-06</v>
+        <v>5.26139359315767E-05</v>
       </c>
       <c r="G22">
-        <v>0.100840336134454</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H22">
-        <v>0.638655462184874</v>
+        <v>0.596638655462185</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2092,22 +2086,22 @@
         <v>0.04</v>
       </c>
       <c r="K22">
-        <v>0.0026758241758241</v>
+        <v>0.0024341678058783</v>
       </c>
       <c r="L22">
-        <v>0.001603987399113</v>
+        <v>0.0015072715482524</v>
       </c>
       <c r="M22">
-        <v>0.0036890023791985</v>
+        <v>0.0033106883232328</v>
       </c>
       <c r="N22">
-        <v>6.68956043956044</v>
+        <v>6.08541951469583</v>
       </c>
       <c r="O22" t="s">
         <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1850793</v>
@@ -2116,19 +2110,19 @@
         <v>5562311</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,37 +2142,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.234651890788787</v>
+        <v>0.355741480941401</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.697478991596639</v>
+        <v>0.65546218487395</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.71</v>
+        <v>7.74</v>
       </c>
       <c r="K23">
-        <v>-0.0075840946843853</v>
+        <v>-0.0035255791505793</v>
       </c>
       <c r="L23">
-        <v>-0.0238917876747166</v>
+        <v>-0.0180313431356536</v>
       </c>
       <c r="M23">
-        <v>0.0096110230760108</v>
+        <v>0.0122868581285127</v>
       </c>
       <c r="N23">
-        <v>-0.0983669868273068</v>
+        <v>-0.0455501182245399</v>
       </c>
       <c r="O23" t="s">
         <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>1850793</v>
@@ -2187,16 +2181,16 @@
         <v>5562311</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,37 +2210,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0003882220683115</v>
+        <v>0.0022989004526081</v>
       </c>
       <c r="G24">
         <v>0.0336134453781513</v>
       </c>
       <c r="H24">
-        <v>0.579831932773109</v>
+        <v>0.546218487394958</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="K24">
-        <v>0.0027331632653061</v>
+        <v>0.0022810304449648</v>
       </c>
       <c r="L24">
-        <v>0.0014137100842422</v>
+        <v>0.001144621492879</v>
       </c>
       <c r="M24">
-        <v>0.0041820181578883</v>
+        <v>0.0036246131159152</v>
       </c>
       <c r="N24">
-        <v>5.46632653061225</v>
+        <v>4.47260871561739</v>
       </c>
       <c r="O24" t="s">
         <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1850793</v>
@@ -2255,19 +2249,19 @@
         <v>5562311</v>
       </c>
       <c r="S24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>0.0174476706896963</v>
+        <v>0.168244535861578</v>
       </c>
       <c r="G25">
         <v>0.008403361344537799</v>
       </c>
       <c r="H25">
-        <v>0.302521008403361</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2302,22 +2296,22 @@
         <v>0.11</v>
       </c>
       <c r="K25">
-        <v>0.002484693877551</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0046769556891232</v>
+        <v>0.0031623376623376</v>
       </c>
       <c r="N25">
-        <v>2.25881261595548</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1850793</v>
@@ -2326,19 +2320,19 @@
         <v>5562311</v>
       </c>
       <c r="S25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,7 +2352,7 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.102390626001336</v>
+        <v>0.0751494399617595</v>
       </c>
       <c r="G26">
         <v>0.0168067226890756</v>
@@ -2373,22 +2367,22 @@
         <v>0.011</v>
       </c>
       <c r="K26">
-        <v>0.0002790297937356</v>
+        <v>0.0002956292998785</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.0007051158301158</v>
+        <v>0.0006660176083827</v>
       </c>
       <c r="N26">
-        <v>2.53663448850615</v>
+        <v>2.68753908980538</v>
       </c>
       <c r="O26" t="s">
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q26">
         <v>1850793</v>
@@ -2397,19 +2391,19 @@
         <v>5562311</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,7 +2423,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.282851622045493</v>
+        <v>0.052751795199017</v>
       </c>
       <c r="G27">
         <v>0.008403361344537799</v>
@@ -2441,25 +2435,25 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="K27">
-        <v>0.0301030219780218</v>
+        <v>0.116701223657376</v>
       </c>
       <c r="L27">
-        <v>-0.062415560554126</v>
+        <v>-0.0024971134655832</v>
       </c>
       <c r="M27">
-        <v>0.16593231174788</v>
+        <v>0.245841417489453</v>
       </c>
       <c r="N27">
-        <v>1.3621276913132</v>
+        <v>5.25681187645838</v>
       </c>
       <c r="O27" t="s">
         <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1850793</v>
@@ -2468,19 +2462,19 @@
         <v>5562311</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,37 +2494,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0011889208510197</v>
+        <v>0.0558445701690147</v>
       </c>
       <c r="G28">
-        <v>0.0073529411764705</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="H28">
-        <v>0.75</v>
+        <v>0.731884057971015</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1.225</v>
+        <v>1.2</v>
       </c>
       <c r="K28">
-        <v>0.06915774697365849</v>
+        <v>0.0323639240506329</v>
       </c>
       <c r="L28">
-        <v>0.0252914087490976</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.151544101170994</v>
+        <v>0.0681774861828046</v>
       </c>
       <c r="N28">
-        <v>5.64553036519661</v>
+        <v>2.69699367088608</v>
       </c>
       <c r="O28" t="s">
         <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1850793</v>
@@ -2539,19 +2533,19 @@
         <v>5562311</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
+        <v>61</v>
+      </c>
+      <c r="V28" t="s">
+        <v>62</v>
+      </c>
+      <c r="W28" t="s">
         <v>63</v>
-      </c>
-      <c r="V28" t="s">
-        <v>64</v>
-      </c>
-      <c r="W28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,37 +2565,37 @@
         <v>42</v>
       </c>
       <c r="F29">
-        <v>0.126872423091032</v>
+        <v>0.0089680161706989</v>
       </c>
       <c r="G29">
-        <v>0.0604026845637584</v>
+        <v>0.0559440559440559</v>
       </c>
       <c r="H29">
-        <v>0.557046979865772</v>
+        <v>0.559440559440559</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29">
-        <v>-0.0250139036990734</v>
+        <v>-0.0575932945747998</v>
       </c>
       <c r="L29">
-        <v>-0.0772455020649746</v>
+        <v>-0.120412087912088</v>
       </c>
       <c r="M29">
-        <v>0.0118246999808858</v>
+        <v>-0.0168138308240718</v>
       </c>
       <c r="N29">
-        <v>-1.25069518495367</v>
+        <v>-2.87966472873999</v>
       </c>
       <c r="O29" t="s">
         <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q29">
         <v>1850793</v>
@@ -2610,19 +2604,19 @@
         <v>5562311</v>
       </c>
       <c r="S29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V29" t="s">
+        <v>62</v>
+      </c>
+      <c r="W29" t="s">
         <v>64</v>
-      </c>
-      <c r="W29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2642,37 +2636,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.000414056266372</v>
+        <v>0.0028349779084769</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.822857142857143</v>
+        <v>0.819209039548023</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="K30">
-        <v>-0.0398499829526083</v>
+        <v>-0.0298233484122116</v>
       </c>
       <c r="L30">
-        <v>-0.0656651038092427</v>
+        <v>-0.0490325862297572</v>
       </c>
       <c r="M30">
-        <v>-0.0199504378074168</v>
+        <v>-0.0147675442639773</v>
       </c>
       <c r="N30">
-        <v>-0.360633329887858</v>
+        <v>-0.270139025472931</v>
       </c>
       <c r="O30" t="s">
         <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q30">
         <v>1850793</v>
@@ -2681,19 +2675,19 @@
         <v>5562311</v>
       </c>
       <c r="S30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,13 +2707,13 @@
         <v>42</v>
       </c>
       <c r="F31">
-        <v>0.134286572214924</v>
+        <v>0.023730434536848</v>
       </c>
       <c r="G31">
         <v>0.275280898876405</v>
       </c>
       <c r="H31">
-        <v>0.06741573033707859</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2734,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.000118690278608</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2743,7 +2737,7 @@
         <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q31">
         <v>1850793</v>
@@ -2752,19 +2746,19 @@
         <v>5562311</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,13 +2778,13 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>5.71120573474424E-05</v>
+        <v>0.0110704779554194</v>
       </c>
       <c r="G32">
-        <v>0.0112994350282486</v>
+        <v>0.0225988700564972</v>
       </c>
       <c r="H32">
-        <v>0.423728813559322</v>
+        <v>0.468926553672316</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -2799,22 +2793,22 @@
         <v>25</v>
       </c>
       <c r="K32">
-        <v>1.45192546583851</v>
+        <v>0.666818804198996</v>
       </c>
       <c r="L32">
-        <v>0.7972866722101321</v>
+        <v>0.0757305363486221</v>
       </c>
       <c r="M32">
-        <v>2.07801551828615</v>
+        <v>1.36317645238608</v>
       </c>
       <c r="N32">
-        <v>5.80770186335404</v>
+        <v>2.66727521679598</v>
       </c>
       <c r="O32" t="s">
         <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q32">
         <v>1850793</v>
@@ -2823,19 +2817,19 @@
         <v>5562311</v>
       </c>
       <c r="S32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,7 +2849,7 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>0.939494305052988</v>
+        <v>0.990251304510436</v>
       </c>
       <c r="G33">
         <v>0.923076923076923</v>
@@ -2894,19 +2888,19 @@
         <v>5562311</v>
       </c>
       <c r="S33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,13 +2920,13 @@
         <v>42</v>
       </c>
       <c r="F34">
-        <v>0.593989220726885</v>
+        <v>0.816703416496951</v>
       </c>
       <c r="G34">
-        <v>0.5976331360946751</v>
+        <v>0.606741573033708</v>
       </c>
       <c r="H34">
-        <v>0.0591715976331361</v>
+        <v>0.0561797752808989</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2956,7 +2950,7 @@
         <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q34">
         <v>1850793</v>
@@ -2965,19 +2959,19 @@
         <v>5562311</v>
       </c>
       <c r="S34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2997,37 +2991,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.0006758406495124</v>
+        <v>0.0004780863271199</v>
       </c>
       <c r="G35">
-        <v>0.118343195266272</v>
+        <v>0.117977528089888</v>
       </c>
       <c r="H35">
-        <v>0.556213017751479</v>
+        <v>0.528089887640449</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>0.039</v>
+        <v>0.0396</v>
       </c>
       <c r="K35">
-        <v>0.0012173278787022</v>
+        <v>0.0012424014680351</v>
       </c>
       <c r="L35">
-        <v>0.0005759054908769</v>
+        <v>0.0005923308332514</v>
       </c>
       <c r="M35">
-        <v>0.0019568617739521</v>
+        <v>0.0018752371092898</v>
       </c>
       <c r="N35">
-        <v>3.12135353513384</v>
+        <v>3.13737744453323</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q35">
         <v>1850793</v>
@@ -3036,19 +3030,19 @@
         <v>5562311</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,37 +3062,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.962246630837737</v>
+        <v>0.7961442988841561</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.613636363636364</v>
+        <v>0.5625</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.69</v>
+        <v>7.71</v>
       </c>
       <c r="K36">
-        <v>0.0124369438664837</v>
+        <v>0.0045274461563281</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0045670522038137</v>
       </c>
       <c r="M36">
-        <v>0.0254529616724739</v>
+        <v>0.0137747460339355</v>
       </c>
       <c r="N36">
-        <v>0.161728788900958</v>
+        <v>0.0587217400301958</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q36">
         <v>1850793</v>
@@ -3107,16 +3101,16 @@
         <v>5562311</v>
       </c>
       <c r="S36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,7 +3130,7 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0632549789888691</v>
+        <v>0.0345099088911528</v>
       </c>
       <c r="G37">
         <v>0.0224719101123595</v>
@@ -3148,25 +3142,25 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.0481</v>
+        <v>0.04865</v>
       </c>
       <c r="K37">
-        <v>0.0007376467614812</v>
+        <v>0.0008335235052487001</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2.26799877022742E-05</v>
       </c>
       <c r="M37">
-        <v>0.0014080031015965</v>
+        <v>0.00159934318555</v>
       </c>
       <c r="N37">
-        <v>1.53356915068857</v>
+        <v>1.71330628005909</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q37">
         <v>1850793</v>
@@ -3175,19 +3169,19 @@
         <v>5562311</v>
       </c>
       <c r="S37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,13 +3201,13 @@
         <v>43</v>
       </c>
       <c r="F38">
-        <v>0.598146672346728</v>
+        <v>0.609445310620931</v>
       </c>
       <c r="G38">
         <v>0.0056179775280898</v>
       </c>
       <c r="H38">
-        <v>0.337078651685393</v>
+        <v>0.320224719101124</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3225,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-0.0012866082286965</v>
+        <v>-0.0013931812631508</v>
       </c>
       <c r="M38">
-        <v>0.0007970011597989</v>
+        <v>0.0006923093488111</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3237,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q38">
         <v>1850793</v>
@@ -3246,19 +3240,19 @@
         <v>5562311</v>
       </c>
       <c r="S38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3278,13 +3272,13 @@
         <v>42</v>
       </c>
       <c r="F39">
-        <v>0.569580206301573</v>
+        <v>0.529109264659596</v>
       </c>
       <c r="G39">
         <v>0.0337078651685393</v>
       </c>
       <c r="H39">
-        <v>0.292134831460674</v>
+        <v>0.297752808988764</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3296,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0002496582365003</v>
+        <v>-0.000231719740712</v>
       </c>
       <c r="M39">
-        <v>0.0001986541168754</v>
+        <v>0.000221189534901</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3308,7 +3302,7 @@
         <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q39">
         <v>1850793</v>
@@ -3317,19 +3311,19 @@
         <v>5562311</v>
       </c>
       <c r="S39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3349,7 +3343,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.630721900006846</v>
+        <v>0.220913181502957</v>
       </c>
       <c r="G40">
         <v>0.0056179775280898</v>
@@ -3361,25 +3355,25 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="K40">
-        <v>-0.0069837476099426</v>
+        <v>0.0240715331690763</v>
       </c>
       <c r="L40">
-        <v>-0.0521133783125761</v>
+        <v>-0.0168910566761747</v>
       </c>
       <c r="M40">
-        <v>0.0440813014385049</v>
+        <v>0.0865794826363704</v>
       </c>
       <c r="N40">
-        <v>-0.309015380970914</v>
+        <v>1.07462201647662</v>
       </c>
       <c r="O40" t="s">
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q40">
         <v>1850793</v>
@@ -3388,19 +3382,19 @@
         <v>5562311</v>
       </c>
       <c r="S40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3420,7 +3414,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3432,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.62</v>
+        <v>0.617</v>
       </c>
       <c r="K41">
-        <v>-0.0001313922482573</v>
+        <v>0.0017281435892742</v>
       </c>
       <c r="L41">
-        <v>-0.0485130401720565</v>
+        <v>-0.0615074203929687</v>
       </c>
       <c r="M41">
-        <v>0.0149118303175931</v>
+        <v>0.0160815376740414</v>
       </c>
       <c r="N41">
-        <v>-0.0211922981060206</v>
+        <v>0.280088101989348</v>
       </c>
       <c r="O41" t="s">
         <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q41">
         <v>1850793</v>
@@ -3459,16 +3453,16 @@
         <v>5562311</v>
       </c>
       <c r="S41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3500,25 +3494,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>127</v>
+        <v>118.1</v>
       </c>
       <c r="K42">
-        <v>-4.26905903790087</v>
+        <v>-2.00961642784289</v>
       </c>
       <c r="L42">
-        <v>-7.17697212217791</v>
+        <v>-11.3688916181359</v>
       </c>
       <c r="M42">
         <v>3.24689160997053</v>
       </c>
       <c r="N42">
-        <v>-3.36146380937077</v>
+        <v>-1.70162271620905</v>
       </c>
       <c r="O42" t="s">
         <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q42">
         <v>1850793</v>
@@ -3527,16 +3521,16 @@
         <v>5562311</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3556,7 +3550,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.40324797025367</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3571,22 +3565,22 @@
         <v>7.448</v>
       </c>
       <c r="K43">
-        <v>-0.16091679489256</v>
+        <v>0.398022118684652</v>
       </c>
       <c r="L43">
-        <v>-1.59803904407165</v>
+        <v>-1.2256142562188</v>
       </c>
       <c r="M43">
         <v>1.01558460557007</v>
       </c>
       <c r="N43">
-        <v>-2.16053698835338</v>
+        <v>5.34401340876278</v>
       </c>
       <c r="O43" t="s">
         <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1850793</v>
@@ -3595,16 +3589,16 @@
         <v>5562311</v>
       </c>
       <c r="S43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3624,7 +3618,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3639,22 +3633,22 @@
         <v>0.6185</v>
       </c>
       <c r="K44">
-        <v>0.0013008508112386</v>
+        <v>-0.0077712765957446</v>
       </c>
       <c r="L44">
-        <v>-0.009889630628508899</v>
+        <v>-0.0150517080615012</v>
       </c>
       <c r="M44">
-        <v>0.009775180918289999</v>
+        <v>0.0041489452618641</v>
       </c>
       <c r="N44">
-        <v>0.210323494137207</v>
+        <v>-1.25647155953835</v>
       </c>
       <c r="O44" t="s">
         <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q44">
         <v>1850793</v>
@@ -3663,16 +3657,16 @@
         <v>5562311</v>
       </c>
       <c r="S44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3692,7 +3686,7 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.185546684761349</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3704,25 +3698,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>125.5</v>
+        <v>122.55</v>
       </c>
       <c r="K45">
-        <v>-0.904084158415842</v>
+        <v>-1.35277777777778</v>
       </c>
       <c r="L45">
-        <v>-3.32942216065707</v>
+        <v>-3.50700677115156</v>
       </c>
       <c r="M45">
-        <v>0.72108849507043</v>
+        <v>0.0218608085277016</v>
       </c>
       <c r="N45">
-        <v>-0.72038578359828</v>
+        <v>-1.10385783580398</v>
       </c>
       <c r="O45" t="s">
         <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q45">
         <v>1850793</v>
@@ -3731,16 +3725,16 @@
         <v>5562311</v>
       </c>
       <c r="S45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3760,7 +3754,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.639742606431872</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3772,25 +3766,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>6.785</v>
+        <v>7.05</v>
       </c>
       <c r="K46">
-        <v>0.037584564860427</v>
+        <v>0.0347646256441346</v>
       </c>
       <c r="L46">
         <v>-0.166819280508869</v>
       </c>
       <c r="M46">
-        <v>0.181935971503174</v>
+        <v>0.143280291770695</v>
       </c>
       <c r="N46">
-        <v>0.553936107007031</v>
+        <v>0.493115257363611</v>
       </c>
       <c r="O46" t="s">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q46">
         <v>1850793</v>
@@ -3799,16 +3793,16 @@
         <v>5562311</v>
       </c>
       <c r="S46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3828,7 +3822,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.586667015164922</v>
+        <v>0.5</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3840,25 +3834,25 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.6185</v>
+        <v>0.617</v>
       </c>
       <c r="K47">
-        <v>0.0017914168937329</v>
+        <v>-0.0005427191679049</v>
       </c>
       <c r="L47">
-        <v>-0.0065736672339536</v>
+        <v>-0.007489198445545</v>
       </c>
       <c r="M47">
-        <v>0.0079387248355271</v>
+        <v>0.0062986133934526</v>
       </c>
       <c r="N47">
-        <v>0.289638948057069</v>
+        <v>-0.0879609672455274</v>
       </c>
       <c r="O47" t="s">
         <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q47">
         <v>1850793</v>
@@ -3867,16 +3861,16 @@
         <v>5562311</v>
       </c>
       <c r="S47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3896,7 +3890,7 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.117477391851672</v>
+        <v>0.023880621337552</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3911,22 +3905,22 @@
         <v>127</v>
       </c>
       <c r="K48">
-        <v>-0.886474654377881</v>
+        <v>-1.28738670694864</v>
       </c>
       <c r="L48">
-        <v>-1.78142829092204</v>
+        <v>-2.31145332702386</v>
       </c>
       <c r="M48">
-        <v>0.206120585787143</v>
+        <v>-0.327570347835483</v>
       </c>
       <c r="N48">
-        <v>-0.698011538880221</v>
+        <v>-1.013690320432</v>
       </c>
       <c r="O48" t="s">
         <v>45</v>
       </c>
       <c r="P48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q48">
         <v>1850793</v>
@@ -3935,16 +3929,16 @@
         <v>5562311</v>
       </c>
       <c r="S48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3964,37 +3958,37 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.565323878816037</v>
+        <v>0.771325179578243</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.928571428571429</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>6.785</v>
+        <v>6.84</v>
       </c>
       <c r="K49">
-        <v>0.0105057526366249</v>
+        <v>0.0289373560571165</v>
       </c>
       <c r="L49">
-        <v>-0.122554292849509</v>
+        <v>-0.09625764863207049</v>
       </c>
       <c r="M49">
-        <v>0.09943728610145471</v>
+        <v>0.111315517175719</v>
       </c>
       <c r="N49">
-        <v>0.154837916530949</v>
+        <v>0.423060761068955</v>
       </c>
       <c r="O49" t="s">
         <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q49">
         <v>1850793</v>
@@ -4003,16 +3997,16 @@
         <v>5562311</v>
       </c>
       <c r="S49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
